--- a/biology/Mycologie/Taches_noires_du_rosier/Taches_noires_du_rosier.xlsx
+++ b/biology/Mycologie/Taches_noires_du_rosier/Taches_noires_du_rosier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les taches noires du rosier, ou marsonia, sont une maladie cryptogamique qui affecte couramment les rosiers. Elle se manifeste par l'apparition de taches noires sur les feuilles, qui finissent par jaunir et tomber.
@@ -515,7 +527,9 @@
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les taches noires ont une forme vaguement circulaire, avec les bords perforés et atteignent un diamètre d'environ 10  à   15 mm.
 Sur les plantes fortement atteintes, on peut voir plutôt que des formes circulaires, de grandes masses noires résultant de l'agglomération des taches. 
@@ -549,11 +563,13 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le traitement le plus simple de cette maladie, en cas d'affection limitée, consiste à retirer les feuilles atteintes, de façon à limiter sa propagation.
 Pour lutter plus efficacement, on peut pulvériser des solutions fongicides telles que tébuconazole, mancozèbe, chlorothalonil, flutriafol, penconazole, ou des produits à base de cuivre (bouillie bordelaise). Plusieurs pulvérisations au cours de la saison de végétation peuvent être nécessaires pour enrayer effectivement la maladie.
-Les fongicides doivent obtenir une autorisation de mise sur le marché pour l'usage défini, soit ici : maladie des taches noires du rosier (tout usage non autorisé est interdit)[1].
+Les fongicides doivent obtenir une autorisation de mise sur le marché pour l'usage défini, soit ici : maladie des taches noires du rosier (tout usage non autorisé est interdit).
 On rencontre des produits agropharmaceutiques :
 de contact qui ont une action préventive en inhibant la germination de spores comme le soufre ou le mancozèbe (DITHANE)
 systémiques (véhiculés par la sève) , comme le myclobutanil.</t>
@@ -584,7 +600,9 @@
           <t>Confusion possible</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Anthracnose</t>
         </is>
